--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Them toolbar navigor, goi webservice de bind du lieu vao</t>
+  </si>
+  <si>
+    <t>Tren cai listview (item), cho scrollbar vi co nhieu column nua</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +497,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -58,12 +58,30 @@
   <si>
     <t>Tren cai listview (item), cho scrollbar vi co nhieu column nua</t>
   </si>
+  <si>
+    <t>New row tren listview</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>A.THUY</t>
+  </si>
+  <si>
+    <t>In-Charge</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>http://www.codeproject.com/Articles/44070/Insert-a-new-record-using-ListView-with-a-GridView</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +94,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,17 +121,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,18 +434,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -426,8 +457,14 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -435,15 +472,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -451,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -459,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -467,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -475,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -483,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -491,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -499,17 +539,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +489,12 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>http://www.codeproject.com/Articles/44070/Insert-a-new-record-using-ListView-with-a-GridView</t>
+  </si>
+  <si>
+    <t>Sub Menu</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +571,14 @@
       </c>
       <c r="F13" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Sub Menu</t>
+  </si>
+  <si>
+    <t>Them function clear, sau khi add ok thi clear cai grid</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +582,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -81,6 +81,19 @@
   </si>
   <si>
     <t>Them function clear, sau khi add ok thi clear cai grid</t>
+  </si>
+  <si>
+    <t>WS: GetDefault, Func: GetCopyFromTo</t>
+  </si>
+  <si>
+    <t>WS: Transaction, Func: GetMarketingDocument</t>
+  </si>
+  <si>
+    <t>Tren Purchase Order, khi add, ws return dataset gom co code va message, show cai message tren statusbard
+Neu code=0: add ok, clear grid</t>
+  </si>
+  <si>
+    <t>Updated WS</t>
   </si>
 </sst>
 </file>
@@ -440,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +555,9 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -550,6 +566,9 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -590,6 +609,17 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>Updated WS</t>
+  </si>
+  <si>
+    <t>Insert Code of Owner  thay vì  Insert Name ở page Purchase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,7 +278,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,21 +453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -483,7 +484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -491,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="51.75">
       <c r="A4">
         <v>2</v>
       </c>
@@ -502,7 +503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -516,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -524,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -532,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -540,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -548,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
@@ -559,7 +560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
@@ -570,7 +571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
@@ -584,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>11</v>
       </c>
@@ -595,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>12</v>
       </c>
@@ -603,7 +604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>13</v>
       </c>
@@ -611,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="39">
       <c r="A16">
         <v>14</v>
       </c>
@@ -620,6 +621,14 @@
       </c>
       <c r="F16" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -633,24 +642,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Insert Code of Owner  thay vì  Insert Name ở page Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fix popup scroll. Can move scroll into listview and show only 5 lines????</t>
   </si>
 </sst>
 </file>
@@ -167,6 +170,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5991225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IMG_16092012_131957.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="3800475"/>
+          <a:ext cx="5924550" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,6 +677,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
@@ -638,6 +692,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Fix popup scroll. Can move scroll into listview and show only 5 lines????</t>
+  </si>
+  <si>
+    <t>Build User management page (read xls)</t>
   </si>
 </sst>
 </file>
@@ -177,15 +180,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5991225</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>3800475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -202,8 +205,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7667625" y="3800475"/>
-          <a:ext cx="5924550" cy="2952750"/>
+          <a:off x="8772525" y="3248025"/>
+          <a:ext cx="2628900" cy="1310223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -683,6 +686,14 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -103,13 +103,28 @@
   </si>
   <si>
     <t>Build User management page (read xls)</t>
+  </si>
+  <si>
+    <t>Xem 18</t>
+  </si>
+  <si>
+    <t>Xem 17</t>
+  </si>
+  <si>
+    <t>Khi bam add row, ko chon duoc item, Edit thi lai chon duoc.+ Cho edit them cot UnitPrice</t>
+  </si>
+  <si>
+    <t>Uu tien</t>
+  </si>
+  <si>
+    <t>Xem 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,13 +174,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -179,13 +205,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>3800475</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>167223</xdr:rowOff>
@@ -293,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,6 +354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,21 +530,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -524,182 +553,245 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75">
-      <c r="A4">
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="C8" s="5"/>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="5"/>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C10" s="1"/>
+      <c r="G10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="39">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C16" s="2">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -708,24 +800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -213,8 +213,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3800475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167223</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -639,7 +639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Xem 14</t>
+  </si>
+  <si>
+    <t>Het xay ra roi</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -617,8 +620,11 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -626,6 +632,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Het xay ra roi</t>
+  </si>
+  <si>
+    <t>TextBox Calendar, luc dc luc ko</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,9 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
       <c r="G10" t="s">
         <v>21</v>
       </c>
@@ -680,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -725,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -748,8 +753,9 @@
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2">
-        <v>8</v>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -762,9 +768,7 @@
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
-        <v>5</v>
-      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -774,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +788,9 @@
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -793,8 +799,14 @@
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,33 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>Popup: co scrollbar nhung keo het xuong van ko thay button OK, cancel dau</t>
-  </si>
-  <si>
-    <t>Popup Item: chon item roi, nhung len grid ko dung item do.</t>
-  </si>
-  <si>
-    <t>Goi anh huong dan cach generate lai code cho webservice, co gi update gi anh se tu lam.</t>
-  </si>
-  <si>
-    <t>Khi hide cai mainmenu, bi loi.</t>
-  </si>
-  <si>
-    <t>Them page user management</t>
-  </si>
-  <si>
-    <t>Them change password.</t>
-  </si>
-  <si>
-    <t>Them 2 button: Copy From va Copy To.</t>
-  </si>
-  <si>
-    <t>Tren grid nen them 2 column: edit/update va remote
- Co nhieu column co the edit duoc, ko rieng gi column quantity thoi.
- Khi ko cho edit, thi cung ko cho chon warehouse va taxcode luon. Vi taxcode co anh huong den gia tri total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Issue </t>
   </si>
@@ -53,84 +27,38 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Them toolbar navigor, goi webservice de bind du lieu vao</t>
-  </si>
-  <si>
-    <t>Tren cai listview (item), cho scrollbar vi co nhieu column nua</t>
-  </si>
-  <si>
-    <t>New row tren listview</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>A.THUY</t>
-  </si>
-  <si>
     <t>In-Charge</t>
   </si>
   <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>http://www.codeproject.com/Articles/44070/Insert-a-new-record-using-ListView-with-a-GridView</t>
-  </si>
-  <si>
-    <t>Sub Menu</t>
-  </si>
-  <si>
-    <t>Them function clear, sau khi add ok thi clear cai grid</t>
-  </si>
-  <si>
-    <t>WS: GetDefault, Func: GetCopyFromTo</t>
-  </si>
-  <si>
-    <t>WS: Transaction, Func: GetMarketingDocument</t>
-  </si>
-  <si>
-    <t>Tren Purchase Order, khi add, ws return dataset gom co code va message, show cai message tren statusbard
-Neu code=0: add ok, clear grid</t>
-  </si>
-  <si>
-    <t>Updated WS</t>
-  </si>
-  <si>
-    <t>Insert Code of Owner  thay vì  Insert Name ở page Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fix popup scroll. Can move scroll into listview and show only 5 lines????</t>
-  </si>
-  <si>
-    <t>Build User management page (read xls)</t>
-  </si>
-  <si>
-    <t>Xem 18</t>
-  </si>
-  <si>
-    <t>Xem 17</t>
-  </si>
-  <si>
-    <t>Khi bam add row, ko chon duoc item, Edit thi lai chon duoc.+ Cho edit them cot UnitPrice</t>
-  </si>
-  <si>
     <t>Uu tien</t>
   </si>
   <si>
-    <t>Xem 14</t>
-  </si>
-  <si>
-    <t>Het xay ra roi</t>
-  </si>
-  <si>
     <t>TextBox Calendar, luc dc luc ko</t>
+  </si>
+  <si>
+    <t>Popup screen, scrollbar ko hop ly</t>
+  </si>
+  <si>
+    <t>SubMenu</t>
+  </si>
+  <si>
+    <t>User management page</t>
+  </si>
+  <si>
+    <t>Navigator</t>
+  </si>
+  <si>
+    <t>Copy From, Copy To button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,27 +72,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,25 +90,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -205,49 +108,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3800475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52923</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="IMG_16092012_131957.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8772525" y="3248025"/>
-          <a:ext cx="2628900" cy="1310223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,286 +397,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Issue </t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>Copy From, Copy To button</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -220,7 +222,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,14 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -411,7 +412,7 @@
     <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -431,23 +432,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -455,7 +462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -463,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -471,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -479,7 +486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -491,24 +498,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Issue </t>
   </si>
@@ -55,13 +55,19 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>tren IE giao dien ky lam,Chrome thi ok</t>
+  </si>
+  <si>
+    <t>tren IE ko popup dc, tu khi update cai subMenu vao,chrome thi ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -412,7 +428,7 @@
     <col min="7" max="7" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -442,19 +458,25 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -462,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -470,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -478,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -486,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -498,24 +520,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/source/IssueLog.xlsx
+++ b/trunk/source/IssueLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">Issue </t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>tren IE ko popup dc, tu khi update cai subMenu vao,chrome thi ok</t>
+  </si>
+  <si>
+    <t>Cu the la khi co event gi xay ra, thi cac textbox ko popup calendar nua</t>
+  </si>
+  <si>
+    <t>Goi Webservice tra ve menu tai button</t>
+  </si>
+  <si>
+    <t>Goi WebService, tra ve dataset voi 2 tables</t>
+  </si>
+  <si>
+    <t>xem file excel user management</t>
   </si>
 </sst>
 </file>
@@ -416,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +467,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
@@ -483,6 +495,9 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -491,6 +506,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -499,6 +517,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -506,6 +527,9 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
